--- a/lab 4   Matrice, funcion indice y coincidir.xlsx
+++ b/lab 4   Matrice, funcion indice y coincidir.xlsx
@@ -810,6 +810,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,32 +830,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -951,12 +937,21 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -981,6 +976,14 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -995,7 +998,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B7:D30" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B7:D30" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B7:D30"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Fecha" dataDxfId="11"/>
@@ -1007,7 +1010,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="G7:H8" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="G7:H8" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="G7:H8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Restaurante"/>
@@ -1020,7 +1023,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:F151" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:F151" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:F151"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Fecha" dataDxfId="8"/>
@@ -1035,14 +1038,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="I1:K3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="I1:K3" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="I1:K3"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Buscar"/>
-    <tableColumn id="2" name="Resultado" dataDxfId="0">
-      <calculatedColumnFormula array="1">COUNTIF(Tabla3[Total],Tabla4[[#This Row],[Buscar]])</calculatedColumnFormula>
+    <tableColumn id="2" name="Resultado" dataDxfId="1">
+      <calculatedColumnFormula array="1">COUNTIF(Tabla3[Sucursal],Tabla4[[#This Row],[Buscar]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Total"/>
+    <tableColumn id="3" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUMIF(Tabla3[Sucursal],Tabla4[[#This Row],[Buscar]],Tabla3[Total])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1360,13 +1365,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
@@ -1394,10 +1399,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="1">
         <v>4</v>
       </c>
@@ -1815,10 +1820,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I3" s="24" t="s">
@@ -2180,23 +2185,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="5"/>
       <c r="J3" t="s">
         <v>2</v>
@@ -2888,7 +2893,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="28" t="s">
         <v>157</v>
       </c>
       <c r="G44" s="4"/>
@@ -2924,13 +2929,13 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="28" t="s">
         <v>161</v>
       </c>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="29" t="s">
         <v>162</v>
       </c>
       <c r="G51" s="4"/>
@@ -3017,7 +3022,7 @@
   <dimension ref="A1:K163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,7 +3083,15 @@
         <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>111</v>
+      </c>
+      <c r="J2">
+        <f t="array" ref="J2">COUNTIF(Tabla3[Sucursal],Tabla4[[#This Row],[Buscar]])</f>
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(Tabla3[Sucursal],Tabla4[[#This Row],[Buscar]],Tabla3[Total])</f>
+        <v>562000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3101,11 +3114,15 @@
         <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J3">
-        <f t="array" ref="J3">COUNTIF(Tabla3[Total],Tabla4[[#This Row],[Buscar]])</f>
-        <v>0</v>
+        <f t="array" ref="J3">COUNTIF(Tabla3[Sucursal],Tabla4[[#This Row],[Buscar]])</f>
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <f>SUMIF(Tabla3[Sucursal],Tabla4[[#This Row],[Buscar]],Tabla3[Total])</f>
+        <v>679000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
